--- a/DataMakananCahya.xlsx
+++ b/DataMakananCahya.xlsx
@@ -5,15 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester_2\Proyek_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREP\Repo-Kel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Oto Bento" sheetId="1" r:id="rId1"/>
     <sheet name="Ootoya" sheetId="2" r:id="rId2"/>
+    <sheet name="Arasseo" sheetId="3" r:id="rId3"/>
+    <sheet name="Kyochon" sheetId="4" r:id="rId4"/>
+    <sheet name="Han Gang" sheetId="5" r:id="rId5"/>
+    <sheet name="PHD" sheetId="6" r:id="rId6"/>
+    <sheet name="Delicio" sheetId="7" r:id="rId7"/>
+    <sheet name="Bodega" sheetId="8" r:id="rId8"/>
+    <sheet name="Aciap" sheetId="9" r:id="rId9"/>
+    <sheet name="Kacamata" sheetId="10" r:id="rId10"/>
+    <sheet name="Mangkok Putih" sheetId="11" r:id="rId11"/>
+    <sheet name="Ayam Bakar Ganthari" sheetId="12" r:id="rId12"/>
+    <sheet name="Ayam Betutu Ibu Putu" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="454">
   <si>
     <t>Nama Menu</t>
   </si>
@@ -160,13 +171,1240 @@
   </si>
   <si>
     <t>Hot Lemon Tea</t>
+  </si>
+  <si>
+    <t>Finger Floss</t>
+  </si>
+  <si>
+    <t>Shrooms</t>
+  </si>
+  <si>
+    <t>Wild Wild Wings</t>
+  </si>
+  <si>
+    <t>Seafood Pancake</t>
+  </si>
+  <si>
+    <t>Kimchi Tofu</t>
+  </si>
+  <si>
+    <t>Spicy Beef</t>
+  </si>
+  <si>
+    <t>Short Ribs</t>
+  </si>
+  <si>
+    <t>Arasseo Steak Tartara</t>
+  </si>
+  <si>
+    <t>Arraseo`s Sandwich</t>
+  </si>
+  <si>
+    <t>Bulgogi</t>
+  </si>
+  <si>
+    <t>Diet Coke</t>
+  </si>
+  <si>
+    <t>Flavoured Iced Tea</t>
+  </si>
+  <si>
+    <t>Infused Water</t>
+  </si>
+  <si>
+    <t>Pokka Green Tea</t>
+  </si>
+  <si>
+    <t>Sparkling Equil</t>
+  </si>
+  <si>
+    <t>Still Equil</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Ginger Ale</t>
+  </si>
+  <si>
+    <t>Ice Tea</t>
+  </si>
+  <si>
+    <t>Green Salad</t>
+  </si>
+  <si>
+    <t>Mandarin Chicken Salad</t>
+  </si>
+  <si>
+    <t>Salsal Salad</t>
+  </si>
+  <si>
+    <t>Kimchi Soup</t>
+  </si>
+  <si>
+    <t>Rice Cake Soup</t>
+  </si>
+  <si>
+    <t>Garlic Butter Rice</t>
+  </si>
+  <si>
+    <t>Potato Wedge</t>
+  </si>
+  <si>
+    <t>French Fries</t>
+  </si>
+  <si>
+    <t>Butter rice</t>
+  </si>
+  <si>
+    <t>White rice</t>
+  </si>
+  <si>
+    <t>Mango Peach</t>
+  </si>
+  <si>
+    <t>Virgin Mojito</t>
+  </si>
+  <si>
+    <t>Strawberry Mojito</t>
+  </si>
+  <si>
+    <t>Draft Beer Glass</t>
+  </si>
+  <si>
+    <t>Draft Beer Pitcher</t>
+  </si>
+  <si>
+    <t>Soda Glass</t>
+  </si>
+  <si>
+    <t>Soda Pitcher</t>
+  </si>
+  <si>
+    <t>Mineral Water</t>
+  </si>
+  <si>
+    <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>Hot Tea</t>
+  </si>
+  <si>
+    <t>Han Gang Samgyetang</t>
+  </si>
+  <si>
+    <t>Insam Sup</t>
+  </si>
+  <si>
+    <t>Jab-chae</t>
+  </si>
+  <si>
+    <t>Kapoengki</t>
+  </si>
+  <si>
+    <t>Kimchi Jjigae</t>
+  </si>
+  <si>
+    <t>Maeun Tteokpoki</t>
+  </si>
+  <si>
+    <t>Miyeokguk</t>
+  </si>
+  <si>
+    <t>Ojingeo Bokeum</t>
+  </si>
+  <si>
+    <t>Seolleongtang</t>
+  </si>
+  <si>
+    <t>Sundubu + Kimchi</t>
+  </si>
+  <si>
+    <t>White Rice</t>
+  </si>
+  <si>
+    <t>Yujgaejang</t>
+  </si>
+  <si>
+    <t>Yukhoe</t>
+  </si>
+  <si>
+    <t>Chadol Baki</t>
+  </si>
+  <si>
+    <t>Deungsim</t>
+  </si>
+  <si>
+    <t>Jummuleok</t>
+  </si>
+  <si>
+    <t>Modeum Gogi</t>
+  </si>
+  <si>
+    <t>Seng Galbi</t>
+  </si>
+  <si>
+    <t>American Favourite</t>
+  </si>
+  <si>
+    <t>Beef Fettuccine</t>
+  </si>
+  <si>
+    <t>Beef Lasagna</t>
+  </si>
+  <si>
+    <t>Beef Spaghetti</t>
+  </si>
+  <si>
+    <t>Boneless Chicken Thigh</t>
+  </si>
+  <si>
+    <t>Cheesy Galore</t>
+  </si>
+  <si>
+    <t>Cheesy Melt Potato</t>
+  </si>
+  <si>
+    <t>Chicken Katsu Rice</t>
+  </si>
+  <si>
+    <t>Chicken Sticks</t>
+  </si>
+  <si>
+    <t>Chicken Teriyaki Rice</t>
+  </si>
+  <si>
+    <t>Choco Smooch Pannacotta</t>
+  </si>
+  <si>
+    <t>Creamy Chicken Baked Rice</t>
+  </si>
+  <si>
+    <t>Fresh Salad</t>
+  </si>
+  <si>
+    <t>Garlic Holic Flatbread</t>
+  </si>
+  <si>
+    <t>Goji Berry</t>
+  </si>
+  <si>
+    <t>Hawaiian Chicken</t>
+  </si>
+  <si>
+    <t>Meat Lovers</t>
+  </si>
+  <si>
+    <t>Meat Monsta</t>
+  </si>
+  <si>
+    <t>Meaty</t>
+  </si>
+  <si>
+    <t>Menchi Balls 6 pcs</t>
+  </si>
+  <si>
+    <t>Pepchiz</t>
+  </si>
+  <si>
+    <t>Pepperoni Cheese Fusilli</t>
+  </si>
+  <si>
+    <t>Pepperoni Jalapeno</t>
+  </si>
+  <si>
+    <t>Puff Pastry Mushroom Cream Soup</t>
+  </si>
+  <si>
+    <t>Sea Salt Caramel</t>
+  </si>
+  <si>
+    <t>Spicy Creamy Chicken Rice</t>
+  </si>
+  <si>
+    <t>Splitza Signature</t>
+  </si>
+  <si>
+    <t>Sunny Peach Flatbread</t>
+  </si>
+  <si>
+    <t>Super Supreme</t>
+  </si>
+  <si>
+    <t>Supreme</t>
+  </si>
+  <si>
+    <t>Tuna Melt Flatbread</t>
+  </si>
+  <si>
+    <t>Tuna Melt Spaghetti</t>
+  </si>
+  <si>
+    <t>Aqua 330 mL</t>
+  </si>
+  <si>
+    <t>Cappucino Jelly</t>
+  </si>
+  <si>
+    <t>Lemon Tea</t>
+  </si>
+  <si>
+    <t>Melon Lemonade</t>
+  </si>
+  <si>
+    <t>Orange Drinks</t>
+  </si>
+  <si>
+    <t>Pepsi Cola 1.75 L</t>
+  </si>
+  <si>
+    <t>Pepsi Cola 450 mL</t>
+  </si>
+  <si>
+    <t>Beef Luncheon Croissant</t>
+  </si>
+  <si>
+    <t>Beef and Mushroom Quice</t>
+  </si>
+  <si>
+    <t>Olah Single Chicken</t>
+  </si>
+  <si>
+    <t>Falafel and Chicken Over Rice</t>
+  </si>
+  <si>
+    <t>Chicken and Lamb Over Rice</t>
+  </si>
+  <si>
+    <t>Paket Box isi 12 mini Pastry</t>
+  </si>
+  <si>
+    <t>Paket Box isi 6 pcs normal Pastry</t>
+  </si>
+  <si>
+    <t>Cookies &amp; Cake Hampers Special Ramadhan</t>
+  </si>
+  <si>
+    <t>Mar &amp; Sol Sangría</t>
+  </si>
+  <si>
+    <t>Viña Maipo Blend Carmenere-Cab Sauv</t>
+  </si>
+  <si>
+    <t>Jacob's Creek Shiraz</t>
+  </si>
+  <si>
+    <t>Serra Da Estrela Albariño (Rias Baixas)</t>
+  </si>
+  <si>
+    <t>Famous Grouse</t>
+  </si>
+  <si>
+    <t>Penfolds Koonunga Hill Cabernet Sauvignon</t>
+  </si>
+  <si>
+    <t>Wyndham Estate Bin 888 Cabernet Merlot</t>
+  </si>
+  <si>
+    <t>Yuki Milk</t>
+  </si>
+  <si>
+    <t>Aqua 600 ml</t>
+  </si>
+  <si>
+    <t>Teh Kotak Sosro 250 ml</t>
+  </si>
+  <si>
+    <t>Coke / Coke Zero / Sprite / Teh Botol / Mineral Water</t>
+  </si>
+  <si>
+    <t>Black Coffe (Hot)</t>
+  </si>
+  <si>
+    <t>Wyndham Estate Bin 999 Merlot</t>
+  </si>
+  <si>
+    <t>Cockburn's Tawny Port</t>
+  </si>
+  <si>
+    <t>Absolut Blue</t>
+  </si>
+  <si>
+    <t>Kahlua</t>
+  </si>
+  <si>
+    <t>Jack Daniel's</t>
+  </si>
+  <si>
+    <t>Glenfiddich 12</t>
+  </si>
+  <si>
+    <t>Grey Goose</t>
+  </si>
+  <si>
+    <t>Jameson's</t>
+  </si>
+  <si>
+    <t>Remy Martin VSOP</t>
+  </si>
+  <si>
+    <t>Hennessy VSOP</t>
+  </si>
+  <si>
+    <t>Patrón Silver</t>
+  </si>
+  <si>
+    <t>Macallan 12</t>
+  </si>
+  <si>
+    <t>Aqua 240 ml</t>
+  </si>
+  <si>
+    <t>Aqua 330 ml</t>
+  </si>
+  <si>
+    <t>Kalosi Coffee</t>
+  </si>
+  <si>
+    <t>Japanese Choco</t>
+  </si>
+  <si>
+    <t>Jeruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga </t>
+  </si>
+  <si>
+    <t>Bihun Bun</t>
+  </si>
+  <si>
+    <t>Bihun Goreng</t>
+  </si>
+  <si>
+    <t>Bihun Kuah</t>
+  </si>
+  <si>
+    <t>Bihun Siram</t>
+  </si>
+  <si>
+    <t>Bihun Yam</t>
+  </si>
+  <si>
+    <t>Nasi Goreng</t>
+  </si>
+  <si>
+    <t>Nasi Siram</t>
+  </si>
+  <si>
+    <t>Nasi Siram Sapi Campur</t>
+  </si>
+  <si>
+    <t>Bakmi Bun</t>
+  </si>
+  <si>
+    <t>Bakmi Goreng</t>
+  </si>
+  <si>
+    <t>Bakmi Kuah</t>
+  </si>
+  <si>
+    <t>Bakmi Siram</t>
+  </si>
+  <si>
+    <t>Bakmi Yam</t>
+  </si>
+  <si>
+    <t>Ifumi Sapi</t>
+  </si>
+  <si>
+    <t>Kuetiaw Bun</t>
+  </si>
+  <si>
+    <t>Kuetiaw Goreng</t>
+  </si>
+  <si>
+    <t>Kuetiaw Goreng Sapi Campur</t>
+  </si>
+  <si>
+    <t>Kuetiaw Kuah</t>
+  </si>
+  <si>
+    <t>Kuetiaw Siram</t>
+  </si>
+  <si>
+    <t>Kuetiaw Siram Sapi Campur</t>
+  </si>
+  <si>
+    <t>Kuetiaw Yam</t>
+  </si>
+  <si>
+    <t>Bakso Goreng</t>
+  </si>
+  <si>
+    <t>Bakso Kuah</t>
+  </si>
+  <si>
+    <t>Cah Cai Sim</t>
+  </si>
+  <si>
+    <t>Cah Kecap</t>
+  </si>
+  <si>
+    <t>Cah Tauge</t>
+  </si>
+  <si>
+    <t>Extra Acar (Cabe Rebus Potong)</t>
+  </si>
+  <si>
+    <t>Kerupuk Mie</t>
+  </si>
+  <si>
+    <t>Kerupuk Opak</t>
+  </si>
+  <si>
+    <t>Sambal</t>
+  </si>
+  <si>
+    <t>Sop</t>
+  </si>
+  <si>
+    <t>Telur Dadar/ Mata Sapi</t>
+  </si>
+  <si>
+    <t>Air Mineral</t>
+  </si>
+  <si>
+    <t>Cendol Durian</t>
+  </si>
+  <si>
+    <t>Cendol Nangka</t>
+  </si>
+  <si>
+    <t>Cendol Original</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Es Jeruk</t>
+  </si>
+  <si>
+    <t>Es Liang Teh</t>
+  </si>
+  <si>
+    <t>Es Lidah Buaya</t>
+  </si>
+  <si>
+    <t>Es Soda Susu</t>
+  </si>
+  <si>
+    <t>Es Susu Kacang</t>
+  </si>
+  <si>
+    <t>Es Teh Tawar</t>
+  </si>
+  <si>
+    <t>Frestea</t>
+  </si>
+  <si>
+    <t>Teh Manis</t>
+  </si>
+  <si>
+    <t>Teh Tawar</t>
+  </si>
+  <si>
+    <t>Es Batu</t>
+  </si>
+  <si>
+    <t>Nasi Campur Hainam Special</t>
+  </si>
+  <si>
+    <t>Nasi Putih Campur</t>
+  </si>
+  <si>
+    <t>Nasi Putih Campur Special</t>
+  </si>
+  <si>
+    <t>Nasi Hainam Campur</t>
+  </si>
+  <si>
+    <t>Nasi Putih Bebek</t>
+  </si>
+  <si>
+    <t>Nasi Hainam Polos</t>
+  </si>
+  <si>
+    <t>Nasi Putih Ayam</t>
+  </si>
+  <si>
+    <t>Nasi Hainam Chasiu Siobak</t>
+  </si>
+  <si>
+    <t>Nasi Putih Polos</t>
+  </si>
+  <si>
+    <t>Nasi Hainam Chasiu</t>
+  </si>
+  <si>
+    <t>Nasi Putih Chasiu Siobak</t>
+  </si>
+  <si>
+    <t>Nasi Hainam Siobak</t>
+  </si>
+  <si>
+    <t>Nasi Putih Siobak</t>
+  </si>
+  <si>
+    <t>Nasi Hainam Bebek</t>
+  </si>
+  <si>
+    <t>Nasi Putih Chasiu</t>
+  </si>
+  <si>
+    <t>Chasiu Biasa</t>
+  </si>
+  <si>
+    <t>Chasiu Garing Madu</t>
+  </si>
+  <si>
+    <t>Siobak</t>
+  </si>
+  <si>
+    <t>Ayam Panggang</t>
+  </si>
+  <si>
+    <t>Bebek Panggang</t>
+  </si>
+  <si>
+    <t>Bakmi Hongkong Ayam</t>
+  </si>
+  <si>
+    <t>Bakmi Hongkong Bebek</t>
+  </si>
+  <si>
+    <t>Bakmi Hongkong Chasiu</t>
+  </si>
+  <si>
+    <t>Bakmi Hongkong Chasiu Siobak</t>
+  </si>
+  <si>
+    <t>Bakmi Hongkong Pangsit</t>
+  </si>
+  <si>
+    <t>Bakmi Hongkong Siobak</t>
+  </si>
+  <si>
+    <t>Bakmi Polos</t>
+  </si>
+  <si>
+    <t>Bakmi Special</t>
+  </si>
+  <si>
+    <t>Bubur Ayam</t>
+  </si>
+  <si>
+    <t>Bubur Ayam Telor Pitan</t>
+  </si>
+  <si>
+    <t>Bubur Bebek</t>
+  </si>
+  <si>
+    <t>Bubur Chasiu</t>
+  </si>
+  <si>
+    <t>Bubur Chasiu Siobak</t>
+  </si>
+  <si>
+    <t>Bubur Polos</t>
+  </si>
+  <si>
+    <t>Bubur Siobak</t>
+  </si>
+  <si>
+    <t>Bubur Special</t>
+  </si>
+  <si>
+    <t>Bubur Telor Pitan</t>
+  </si>
+  <si>
+    <t>Daging Campur</t>
+  </si>
+  <si>
+    <t>Daging Campur Special</t>
+  </si>
+  <si>
+    <t>Telur Kecap</t>
+  </si>
+  <si>
+    <t>Telur Phitan</t>
+  </si>
+  <si>
+    <t>Hakao</t>
+  </si>
+  <si>
+    <t>Siomay</t>
+  </si>
+  <si>
+    <t>Tim Kaki Ayam</t>
+  </si>
+  <si>
+    <t>Chasiu Pao</t>
+  </si>
+  <si>
+    <t>Lo Mai Kai</t>
+  </si>
+  <si>
+    <t>Lumpia Goreng</t>
+  </si>
+  <si>
+    <t>Pangsit</t>
+  </si>
+  <si>
+    <t>Mantau</t>
+  </si>
+  <si>
+    <t>Baso Babi Goreng</t>
+  </si>
+  <si>
+    <t>Pancake Durian</t>
+  </si>
+  <si>
+    <t>Air Mineral Botol</t>
+  </si>
+  <si>
+    <t>Badak</t>
+  </si>
+  <si>
+    <t>Bir Bintang</t>
+  </si>
+  <si>
+    <t>Cincau</t>
+  </si>
+  <si>
+    <t>Green Tea</t>
+  </si>
+  <si>
+    <t>Guness</t>
+  </si>
+  <si>
+    <t>Heineken</t>
+  </si>
+  <si>
+    <t>Kietna</t>
+  </si>
+  <si>
+    <t>Liang Teh</t>
+  </si>
+  <si>
+    <t>Markisa</t>
+  </si>
+  <si>
+    <t>Milo</t>
+  </si>
+  <si>
+    <t>Susu Kacang</t>
+  </si>
+  <si>
+    <t>Teh Botol</t>
+  </si>
+  <si>
+    <t>Teh Kembang</t>
+  </si>
+  <si>
+    <t>Teh Kundur</t>
+  </si>
+  <si>
+    <t>Teh Tarik</t>
+  </si>
+  <si>
+    <t>Walet</t>
+  </si>
+  <si>
+    <t>Agedashi Tofu</t>
+  </si>
+  <si>
+    <t>Cassava Cracker</t>
+  </si>
+  <si>
+    <t>Chicken Wings</t>
+  </si>
+  <si>
+    <t>Crispy Noodle Balls</t>
+  </si>
+  <si>
+    <t>Egg Roll</t>
+  </si>
+  <si>
+    <t>Fried Bun with Sweet Milk</t>
+  </si>
+  <si>
+    <t>Fried Wonton</t>
+  </si>
+  <si>
+    <t>Kerupuk Polos</t>
+  </si>
+  <si>
+    <t>Otak-otak</t>
+  </si>
+  <si>
+    <t>Shrimp Cakwe</t>
+  </si>
+  <si>
+    <t>Shrimp Cracker</t>
+  </si>
+  <si>
+    <t>Shrimp Mayo</t>
+  </si>
+  <si>
+    <t>Tahu Pong</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Salad</t>
+  </si>
+  <si>
+    <t>Crispy Mango Chicken Salad</t>
+  </si>
+  <si>
+    <t>Mango Salad</t>
+  </si>
+  <si>
+    <t>Beef Pho</t>
+  </si>
+  <si>
+    <t>Chicken &amp; Mushroom Noodles</t>
+  </si>
+  <si>
+    <t>Duck Noodles</t>
+  </si>
+  <si>
+    <t>Hainan Chicken Noodles</t>
+  </si>
+  <si>
+    <t>Tomyam Beef Noodles</t>
+  </si>
+  <si>
+    <t>Tomyam Goong</t>
+  </si>
+  <si>
+    <t>Tomyam Seafood Noodles</t>
+  </si>
+  <si>
+    <t>Wonton Soup</t>
+  </si>
+  <si>
+    <t>Fried Kwetiau Beef</t>
+  </si>
+  <si>
+    <t>Fried Kwetiau Chicken</t>
+  </si>
+  <si>
+    <t>Fried Kwetiau Seafood</t>
+  </si>
+  <si>
+    <t>Fried Kwetiau Vegetables</t>
+  </si>
+  <si>
+    <t>Gledek Noodles</t>
+  </si>
+  <si>
+    <t>Hokkian Beef</t>
+  </si>
+  <si>
+    <t>Hokkian Chicken</t>
+  </si>
+  <si>
+    <t>Hokkian Seafood</t>
+  </si>
+  <si>
+    <t>Hokkian Vegetables</t>
+  </si>
+  <si>
+    <t>Hongkong Fried Noodles</t>
+  </si>
+  <si>
+    <t>Kwetiau Siram Beef</t>
+  </si>
+  <si>
+    <t>Kwetiau Siram Chicken</t>
+  </si>
+  <si>
+    <t>Kwetiau Siram Seafood</t>
+  </si>
+  <si>
+    <t>Kwetiau Siram Vegetables</t>
+  </si>
+  <si>
+    <t>Kwetiau Tomyam</t>
+  </si>
+  <si>
+    <t>Pad Thai</t>
+  </si>
+  <si>
+    <t>Penang Fried Kwetiau</t>
+  </si>
+  <si>
+    <t>Beef Black Pepper</t>
+  </si>
+  <si>
+    <t>Beef Kungpao</t>
+  </si>
+  <si>
+    <t>Broccoli Beef</t>
+  </si>
+  <si>
+    <t>Broccoli Chicken</t>
+  </si>
+  <si>
+    <t>Broccoli Garlic</t>
+  </si>
+  <si>
+    <t>Chicken Kremes</t>
+  </si>
+  <si>
+    <t>Chicken Kungpao</t>
+  </si>
+  <si>
+    <t>Crispy Hainan Chicken Rice</t>
+  </si>
+  <si>
+    <t>Crispy Hainan Duck Rice</t>
+  </si>
+  <si>
+    <t>Crispy Shrimp Oat meal</t>
+  </si>
+  <si>
+    <t>Duck Black Pepper</t>
+  </si>
+  <si>
+    <t>Duck Kremes</t>
+  </si>
+  <si>
+    <t>Fried Duck w/ Green Chilli</t>
+  </si>
+  <si>
+    <t>Hainan Chicken Rice</t>
+  </si>
+  <si>
+    <t>Hainan Duck Rice</t>
+  </si>
+  <si>
+    <t>Mixed Vegetables</t>
+  </si>
+  <si>
+    <t>Spaghetti Aglio E-olio</t>
+  </si>
+  <si>
+    <t>Spaghetti Alfredo</t>
+  </si>
+  <si>
+    <t>Spaghetti Bolognaise</t>
+  </si>
+  <si>
+    <t>Spaghetti Marinara</t>
+  </si>
+  <si>
+    <t>Spaghetti Napolitana</t>
+  </si>
+  <si>
+    <t>Beef Katsu</t>
+  </si>
+  <si>
+    <t>Beef Teriyaki</t>
+  </si>
+  <si>
+    <t>Beef Teriyaki Noodles</t>
+  </si>
+  <si>
+    <t>Chicken Curry Katsu</t>
+  </si>
+  <si>
+    <t>Chicken Teriyaki Noodles</t>
+  </si>
+  <si>
+    <t>Salmon Teriyaki</t>
+  </si>
+  <si>
+    <t>Beef Fried Rice</t>
+  </si>
+  <si>
+    <t>Duck Fried Rice</t>
+  </si>
+  <si>
+    <t>Extra Egg</t>
+  </si>
+  <si>
+    <t>Pinneaple Fried Rice</t>
+  </si>
+  <si>
+    <t>Salmon Fried Rice</t>
+  </si>
+  <si>
+    <t>Salt Fish Fried Rice</t>
+  </si>
+  <si>
+    <t>Seafood Fried Rice</t>
+  </si>
+  <si>
+    <t>Tomyam Fried Rice</t>
+  </si>
+  <si>
+    <t>Vegetables Fried Rice</t>
+  </si>
+  <si>
+    <t>Exotic Guava Lychee</t>
+  </si>
+  <si>
+    <t>Oreo Sandwich Shake</t>
+  </si>
+  <si>
+    <t>Strawberry Crush</t>
+  </si>
+  <si>
+    <t>Vanilla Milk Shake</t>
+  </si>
+  <si>
+    <t>Guava</t>
+  </si>
+  <si>
+    <t>Lychee</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Strawberry-Lychee</t>
+  </si>
+  <si>
+    <t>Honey Tea</t>
+  </si>
+  <si>
+    <t>Hot/Ice Cappucino</t>
+  </si>
+  <si>
+    <t>Hot/Ice Coffee</t>
+  </si>
+  <si>
+    <t>Hot/Ice Green Tea</t>
+  </si>
+  <si>
+    <t>Hot/Ice Lemon Tea</t>
+  </si>
+  <si>
+    <t>Hot/Ice Tea</t>
+  </si>
+  <si>
+    <t>Hot/Ice Thai Tea</t>
+  </si>
+  <si>
+    <t>Hot/Ice Vietnam Coffee</t>
+  </si>
+  <si>
+    <t>Lychee Tea</t>
+  </si>
+  <si>
+    <t>Tea Tarik</t>
+  </si>
+  <si>
+    <t>Aqua</t>
+  </si>
+  <si>
+    <t>Ati Ampela</t>
+  </si>
+  <si>
+    <t>Es Podeng</t>
+  </si>
+  <si>
+    <t>Juice Jambu</t>
+  </si>
+  <si>
+    <t>Juice Tomat</t>
+  </si>
+  <si>
+    <t>Juice Alpukat</t>
+  </si>
+  <si>
+    <t>Juice Melon</t>
+  </si>
+  <si>
+    <t>Juice Sirsak</t>
+  </si>
+  <si>
+    <t>Juice Belimbing</t>
+  </si>
+  <si>
+    <t>Juice Mangga</t>
+  </si>
+  <si>
+    <t>Juice Orange</t>
+  </si>
+  <si>
+    <t>Ceker Pedas</t>
+  </si>
+  <si>
+    <t>Dim Sum</t>
+  </si>
+  <si>
+    <t>Nasi Ceker Pedas</t>
+  </si>
+  <si>
+    <t>Ayam Bakar</t>
+  </si>
+  <si>
+    <t>Nasi  Soto Ceker</t>
+  </si>
+  <si>
+    <t>Paket Ayam Bakar</t>
+  </si>
+  <si>
+    <t>Sop Iga</t>
+  </si>
+  <si>
+    <t>Paket Delivery Ayam Bakar + Tahu + Tempe</t>
+  </si>
+  <si>
+    <t>Nasi + Sop Iga</t>
+  </si>
+  <si>
+    <t>Bebek Bakar</t>
+  </si>
+  <si>
+    <t>Nasi Bebek Pedas</t>
+  </si>
+  <si>
+    <t>Paket Bebek Bakar</t>
+  </si>
+  <si>
+    <t>Iga Bakar</t>
+  </si>
+  <si>
+    <t>Nasi + Iga Bakar</t>
+  </si>
+  <si>
+    <t>Aneka Minuman Ringan</t>
+  </si>
+  <si>
+    <t>Fresh Tea</t>
+  </si>
+  <si>
+    <t>Pulpy</t>
+  </si>
+  <si>
+    <t>Sate Lilit</t>
+  </si>
+  <si>
+    <t>Cendol Daluman</t>
+  </si>
+  <si>
+    <t>Teh Susu</t>
+  </si>
+  <si>
+    <t>Jeruk Nipis</t>
+  </si>
+  <si>
+    <t>Bali Coffee</t>
+  </si>
+  <si>
+    <t>Kopi Susu</t>
+  </si>
+  <si>
+    <t>Jeruk Manis</t>
+  </si>
+  <si>
+    <t>Aneka Juice</t>
+  </si>
+  <si>
+    <t>Curcuma Tea</t>
+  </si>
+  <si>
+    <t>Gingseng Coffee</t>
+  </si>
+  <si>
+    <t>Ginger Tea</t>
+  </si>
+  <si>
+    <t>Mocca Coffee</t>
+  </si>
+  <si>
+    <t>Rosella Tea</t>
+  </si>
+  <si>
+    <t>Mango Steen Tea</t>
+  </si>
+  <si>
+    <t>Ikan Bakar Bumbu Bali</t>
+  </si>
+  <si>
+    <t>Cireng Sambal Rujak</t>
+  </si>
+  <si>
+    <t>Mix Juice</t>
+  </si>
+  <si>
+    <t>Plecing Kangkung</t>
+  </si>
+  <si>
+    <t>Vanilla Coffee</t>
+  </si>
+  <si>
+    <t>Bali Cocoa</t>
+  </si>
+  <si>
+    <t>Lemon Grass</t>
+  </si>
+  <si>
+    <t>Bali Cocoa With Herbs</t>
+  </si>
+  <si>
+    <t>Coconut Coffee</t>
+  </si>
+  <si>
+    <t>Milk Shake</t>
+  </si>
+  <si>
+    <t>Nasi Jenggo</t>
+  </si>
+  <si>
+    <t>Bali Luwak Coffee</t>
+  </si>
+  <si>
+    <t>Ayam Betutu Goreng</t>
+  </si>
+  <si>
+    <t>Ayam Betutu Bakar</t>
+  </si>
+  <si>
+    <t>Ayam Betutu Rebus</t>
+  </si>
+  <si>
+    <t>Paket Ayam Betutu Goreng</t>
+  </si>
+  <si>
+    <t>Paket Ayam Betutu Bakar</t>
+  </si>
+  <si>
+    <t>Paket Ayam Betutu Rebus</t>
+  </si>
+  <si>
+    <t>Bebek Betutu Goreng</t>
+  </si>
+  <si>
+    <t>Nasi Campur Bali</t>
+  </si>
+  <si>
+    <t>Paket Bebek Betutu Goreng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,16 +1413,35 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,19 +1449,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,7 +1777,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,11 +2092,3603 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>62700</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>62700</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>13200</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>49500</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>34300</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>36300</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>34300</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>38500</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>60500</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>39600</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>47300</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>41800</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>47300</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>47300</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>47300</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9">
+        <v>13200</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>50600</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>41800</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>47300</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>47300</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>41800</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9">
+        <v>47300</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>13200</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>41800</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="11">
+        <v>50600</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>41800</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9">
+        <v>41800</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9">
+        <v>55000</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9">
+        <v>8800</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9">
+        <v>24200</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9">
+        <v>24200</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="9">
+        <v>24200</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="9">
+        <v>24200</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>24200</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="9">
+        <v>24200</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9">
+        <v>23100</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9">
+        <v>24200</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9">
+        <v>23100</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9">
+        <v>24200</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="9">
+        <v>8800</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="9">
+        <v>33000</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="9">
+        <v>35200</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="9">
+        <v>33000</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="9">
+        <v>22000</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="9">
+        <v>18700</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="9">
+        <v>8800</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="9">
+        <v>16500</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>26000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>34000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>33000</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>29000</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>16000</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>6000</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>41000</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45000</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>16000</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>37000</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>37000</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>39000</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>45000</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>49000</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>48000</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>47000</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>49000</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>46000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>31000</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9">
+        <v>44000</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>36000</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>39000</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>44000</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9">
+        <v>36000</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>44000</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9">
+        <v>36000</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9">
+        <v>45000</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="9">
+        <v>43000</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9">
+        <v>52000</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9">
+        <v>47000</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="9">
+        <v>52000</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="9">
+        <v>46000</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>32000</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="9">
+        <v>37000</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9">
+        <v>50000</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9">
+        <v>50000</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9">
+        <v>46000</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="9">
+        <v>48000</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="9">
+        <v>51000</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="9">
+        <v>51000</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9">
+        <v>49000</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="9">
+        <v>49000</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="9">
+        <v>33000</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="9">
+        <v>44000</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="9">
+        <v>49000</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="9">
+        <v>47000</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="9">
+        <v>47000</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="9">
+        <v>54000</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="9">
+        <v>56000</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="9">
+        <v>56000</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="9">
+        <v>46000</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="9">
+        <v>46000</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="9">
+        <v>46000</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="9">
+        <v>62000</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="9">
+        <v>37000</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="9">
+        <v>33000</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="9">
+        <v>37000</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="9">
+        <v>6000</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="9">
+        <v>39000</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="11">
+        <v>16000</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="9">
+        <v>16000</v>
+      </c>
+      <c r="D86" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="9">
+        <v>18000</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="9">
+        <v>8000</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D92" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D94" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="9">
+        <v>13000</v>
+      </c>
+      <c r="D95" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="9">
+        <v>21000</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="9">
+        <v>17000</v>
+      </c>
+      <c r="D97" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D98" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="9">
+        <v>17000</v>
+      </c>
+      <c r="D99" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D100" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="9">
+        <v>22000</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="9">
+        <v>22000</v>
+      </c>
+      <c r="D102" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D103" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="9">
+        <v>23000</v>
+      </c>
+      <c r="D104" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" s="2">
+        <v>17000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" s="2">
+        <v>17000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="2">
+        <v>23000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" s="2">
+        <v>26000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" s="2">
+        <v>32000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" s="2">
+        <v>33000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="2">
+        <v>33000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="2">
+        <v>35000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="2">
+        <v>55000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3300</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4400</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7700</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7700</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7700</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7700</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8800</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8800</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9900</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11000</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11000</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12100</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13200</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13200</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>426</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14300</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>427</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14300</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>431</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>436</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>441</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>442</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2">
+        <v>17600</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2">
+        <v>30800</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>444</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2">
+        <v>38500</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>445</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>41800</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>41800</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>447</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41800</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>448</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44000</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44000</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>450</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44000</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44000</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>452</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44000</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>46200</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>446</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>159500</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>445</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>159500</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>451</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>170500</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>170500</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1163,4 +6047,2882 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>40500</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>40500</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>40500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>66700</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>75000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>129500</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>101500</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>172500</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>91000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>103500</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>40500</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
+        <v>34500</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4">
+        <v>23000</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>52000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>55000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>17000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>28000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>22000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>14000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <v>40000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <v>145000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4">
+        <v>55000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
+        <v>11000</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>17000</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4">
+        <v>17000</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>186300</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>80730</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>121716</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>97750</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>90666</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>80730</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>90666</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>111780</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>90666</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>90666</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18630</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>90666</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>245916</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>196236</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>196236</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>260820</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>270756</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>654500</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>260820</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4">
+        <v>18630</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>81000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>48000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>71000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>31000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>34000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>38000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>32000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>71000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>81000</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>81000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>71000</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>34000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>34000</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43000</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>81000</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>26000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>18000</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5">
+        <v>85000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>30000</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>81000</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5">
+        <v>71000</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>32000</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5">
+        <v>43000</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5">
+        <v>18000</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5">
+        <v>18000</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="5">
+        <v>8000</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>14000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>22000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>35000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>55000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>55000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>85000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>185000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>250000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>255000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>275000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>325000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>365000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>375000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>456500</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>456500</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>515000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>638000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>671000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>715000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>750000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>803000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>825000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>925000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1025000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1150000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1870000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4500</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4500</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>39000</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>8000</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>39000</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>46000</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>39000</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>48000</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>39000</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>46000</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>38000</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>45000</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>48000</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9">
+        <v>43000</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>18000</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>18000</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>45000</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9">
+        <v>8000</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="9">
+        <v>7000</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="9">
+        <v>17000</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="9">
+        <v>17000</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="9">
+        <v>16000</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="9">
+        <v>8000</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="9">
+        <v>17000</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="9">
+        <v>7000</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="9">
+        <v>6000</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="9">
+        <v>8000</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="9">
+        <v>8000</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>